--- a/biology/Histoire de la zoologie et de la botanique/Justin_Girod-Chantrans/Justin_Girod-Chantrans.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Justin_Girod-Chantrans/Justin_Girod-Chantrans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Justin Girod-Chantrans est un militaire, un naturaliste et un homme politique français, né le 26 septembre 1750 à Besançon et mort le 1er avril 1841 dans cette même ville.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né Girod de Chantrans, il abandonne sa particule après la Révolution. Après des études chez les jésuites, il devient officier du génie en 1768. C’est lors d’un séjour à Besançon, vers 1785, qu’il découvre l’histoire naturelle, et fréquente notamment Charles Nodier[1] (1780-1844).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né Girod de Chantrans, il abandonne sa particule après la Révolution. Après des études chez les jésuites, il devient officier du génie en 1768. C’est lors d’un séjour à Besançon, vers 1785, qu’il découvre l’histoire naturelle, et fréquente notamment Charles Nodier (1780-1844).
 En 1802, il entame une carrière politique en étant élu député au Corps législatif avant de se consacrer uniquement aux sciences naturelles en 1810. Il s’intéresse particulièrement à l’observation microscopique. Girod de Chantrans est considéré comme le père, avec Jean Pierre Étienne Vaucher (1763-1841), de la phycologie française. Il fonde et préside la Société d'agriculture, commerce et arts du Doubs.
 </t>
         </is>
@@ -543,14 +557,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voyage d'un Suisse dans différentes colonies d'Amérique pendant la dernière guerre (Imprimerie de la Société typographique, Neuchâtel, 1785, puis chez Poinçot, Londres et Paris, 1786 ; réédité en 1970 chez J. Tallandier, Paris). (Lire en ligne)
-Essai sur la destination de l'homme, [Besançon], imprimerie de Jérémie Vuitel, 1786[2].
-Coup d’œil sur les principes de la théorie, adaptée à la pratique de l'agriculture. Besançon, imprimerie Couché, s.d. (1800).[2]
+Essai sur la destination de l'homme, [Besançon], imprimerie de Jérémie Vuitel, 1786.
+Coup d’œil sur les principes de la théorie, adaptée à la pratique de l'agriculture. Besançon, imprimerie Couché, s.d. (1800).
 Notice sur la vie et les ouvrages du général d'Arçon (imprimerie de Daclin, Besançon, an IX-1801 puis chez Magimel, Paris, An X-1802).
 Recherches chimiques et microscopiques sur les conferves, bisses, tremelles, etc. (Bernard, Paris, 1802).
-Entretiens d'un père avec son fils sur quelques questions d'agriculture. Besançon,  Deis; Paris, Lenormant; Dijon, Coquet, 1805[2].
+Entretiens d'un père avec son fils sur quelques questions d'agriculture. Besançon,  Deis; Paris, Lenormant; Dijon, Coquet, 1805.
 Essai sur la géographie physique, le climat et l'histoire naturelle... du Doubs (deux volumes, Courcier, Paris, 1810).</t>
         </is>
       </c>
